--- a/KnowYourBudget/Excel/KnowYourBudget - Ep3 - Visualize.xlsx
+++ b/KnowYourBudget/Excel/KnowYourBudget - Ep3 - Visualize.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9c66749522163bc/Documents/Know Your Sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lrtec\Documents\Camtasia\Know Your Sheet\KYB\RepoAssets\knowyoursheet\KnowYourBudget\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="589" documentId="8_{59BE7C0A-8B2B-414C-9A53-A0778CA36D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4C1D3AE-5C00-46B5-9243-F0D48EE3C8F7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A25A3B-3A1D-4DAE-8403-ED8C3C627053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22635" yWindow="0" windowWidth="29100" windowHeight="16305" activeTab="1" xr2:uid="{60223861-FE4D-4750-8395-33F358FC710E}"/>
+    <workbookView xWindow="53655" yWindow="1065" windowWidth="17040" windowHeight="12630" activeTab="2" xr2:uid="{60223861-FE4D-4750-8395-33F358FC710E}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -424,9 +424,6 @@
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -455,14 +452,15 @@
     <xf numFmtId="44" fontId="2" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -4751,10 +4749,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6225,51 +6219,51 @@
         <v>38</v>
       </c>
       <c r="B40" s="9">
-        <f>SUM(B38,B22,B13)</f>
+        <f t="shared" ref="B40:M40" si="17">SUM(B38,B22,B13)</f>
         <v>2394.9899999999998</v>
       </c>
       <c r="C40" s="9">
-        <f>SUM(C38,C22,C13)</f>
+        <f t="shared" si="17"/>
         <v>2064.0907670727338</v>
       </c>
       <c r="D40" s="9">
-        <f>SUM(D38,D22,D13)</f>
+        <f t="shared" si="17"/>
         <v>2074.2446395785946</v>
       </c>
       <c r="E40" s="9">
-        <f>SUM(E38,E22,E13)</f>
+        <f t="shared" si="17"/>
         <v>1987.9609842881378</v>
       </c>
       <c r="F40" s="9">
-        <f>SUM(F38,F22,F13)</f>
+        <f t="shared" si="17"/>
         <v>1918.8899471936877</v>
       </c>
       <c r="G40" s="9">
-        <f>SUM(G38,G22,G13)</f>
+        <f t="shared" si="17"/>
         <v>1953.6074000131237</v>
       </c>
       <c r="H40" s="9">
-        <f>SUM(H38,H22,H13)</f>
+        <f t="shared" si="17"/>
         <v>2020.484898246282</v>
       </c>
       <c r="I40" s="9">
-        <f>SUM(I38,I22,I13)</f>
+        <f t="shared" si="17"/>
         <v>2170.7931182658995</v>
       </c>
       <c r="J40" s="9">
-        <f>SUM(J38,J22,J13)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K40" s="9">
-        <f>SUM(K38,K22,K13)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L40" s="9">
-        <f>SUM(L38,L22,L13)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M40" s="9">
-        <f>SUM(M38,M22,M13)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N40" s="9">
@@ -6282,51 +6276,51 @@
         <v>39</v>
       </c>
       <c r="B41" s="9">
-        <f>B6-B40</f>
+        <f t="shared" ref="B41:M41" si="18">B6-B40</f>
         <v>-394.98999999999978</v>
       </c>
       <c r="C41" s="9">
-        <f>C6-C40</f>
+        <f t="shared" si="18"/>
         <v>-264.0907670727338</v>
       </c>
       <c r="D41" s="9">
-        <f>D6-D40</f>
+        <f t="shared" si="18"/>
         <v>325.75536042140538</v>
       </c>
       <c r="E41" s="9">
-        <f>E6-E40</f>
+        <f t="shared" si="18"/>
         <v>412.03901571186225</v>
       </c>
       <c r="F41" s="9">
-        <f>F6-F40</f>
+        <f t="shared" si="18"/>
         <v>481.1100528063123</v>
       </c>
       <c r="G41" s="9">
-        <f>G6-G40</f>
+        <f t="shared" si="18"/>
         <v>446.39259998687635</v>
       </c>
       <c r="H41" s="9">
-        <f>H6-H40</f>
+        <f t="shared" si="18"/>
         <v>379.515101753718</v>
       </c>
       <c r="I41" s="9">
-        <f>I6-I40</f>
+        <f t="shared" si="18"/>
         <v>229.20688173410053</v>
       </c>
       <c r="J41" s="9">
-        <f>J6-J40</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K41" s="9">
-        <f>K6-K40</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L41" s="9">
-        <f>L6-L40</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M41" s="9">
-        <f>M6-M40</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N41" s="9">
@@ -6362,51 +6356,51 @@
         <v>605.01000000000022</v>
       </c>
       <c r="C44" s="14">
-        <f t="shared" ref="C44:N44" si="17">B44+C41</f>
+        <f t="shared" ref="C44:N44" si="19">B44+C41</f>
         <v>340.91923292726642</v>
       </c>
       <c r="D44" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>666.67459334867181</v>
       </c>
       <c r="E44" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1078.7136090605341</v>
       </c>
       <c r="F44" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1559.8236618668464</v>
       </c>
       <c r="G44" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2006.2162618537227</v>
       </c>
       <c r="H44" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2385.7313636074405</v>
       </c>
       <c r="I44" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2614.938245341541</v>
       </c>
       <c r="J44" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2614.938245341541</v>
       </c>
       <c r="K44" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2614.938245341541</v>
       </c>
       <c r="L44" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2614.938245341541</v>
       </c>
       <c r="M44" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2614.938245341541</v>
       </c>
       <c r="N44" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2993.9414140772533</v>
       </c>
       <c r="O44" t="s">
@@ -6423,7 +6417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4679249-C64A-4054-8B9B-6B3BDD28B4D2}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -6438,51 +6432,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="7">
@@ -6515,7 +6509,7 @@
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="7">
@@ -6548,7 +6542,7 @@
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="7">
@@ -6581,10 +6575,10 @@
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="7">
@@ -6602,58 +6596,58 @@
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="13">
-        <f>SUM(B2:B5)</f>
+        <f t="shared" ref="B6:M6" si="0">SUM(B2:B5)</f>
         <v>3000</v>
       </c>
       <c r="C6" s="13">
-        <f>SUM(C2:C5)</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="D6" s="13">
-        <f>SUM(D2:D5)</f>
+        <f t="shared" si="0"/>
         <v>3400</v>
       </c>
       <c r="E6" s="13">
-        <f>SUM(E2:E5)</f>
+        <f t="shared" si="0"/>
         <v>3400</v>
       </c>
       <c r="F6" s="13">
-        <f>SUM(F2:F5)</f>
+        <f t="shared" si="0"/>
         <v>3400</v>
       </c>
       <c r="G6" s="13">
-        <f>SUM(G2:G5)</f>
+        <f t="shared" si="0"/>
         <v>3400</v>
       </c>
       <c r="H6" s="13">
-        <f>SUM(H2:H5)</f>
+        <f t="shared" si="0"/>
         <v>3400</v>
       </c>
       <c r="I6" s="13">
-        <f>SUM(I2:I5)</f>
+        <f t="shared" si="0"/>
         <v>3400</v>
       </c>
       <c r="J6" s="13">
-        <f>SUM(J2:J5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="13">
-        <f>SUM(K2:K5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L6" s="13">
-        <f>SUM(L2:L5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6" s="13">
-        <f>SUM(M2:M5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="28">
         <f>AVERAGEIF(B6:M6,"&gt;0",B6:M6)</f>
         <v>3300</v>
       </c>
@@ -6690,182 +6684,182 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>1500</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>1500</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>1500</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>1500</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>1500</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <v>1500</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="21">
         <v>1500</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="21">
         <v>1600</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>10.99</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>10.99</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>10.99</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <v>10.99</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>10.99</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <v>10.99</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21">
         <v>9.99</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>9.99</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <v>9.99</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="21">
         <v>9.99</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <v>9.99</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="21">
         <v>9.99</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="21">
         <v>9.99</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21">
         <v>2.99</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>2.99</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <v>2.99</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <v>2.99</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <v>2.99</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <v>2.99</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="21">
         <v>2.99</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <f>SUM(B9:B12)</f>
         <v>1510.99</v>
       </c>
-      <c r="C13" s="24">
-        <f t="shared" ref="C13:M13" si="0">SUM(C9:C12)</f>
+      <c r="C13" s="23">
+        <f t="shared" ref="C13:M13" si="1">SUM(C9:C12)</f>
         <v>1523.97</v>
       </c>
-      <c r="D13" s="24">
-        <f t="shared" si="0"/>
+      <c r="D13" s="23">
+        <f t="shared" si="1"/>
         <v>1523.97</v>
       </c>
-      <c r="E13" s="24">
-        <f t="shared" si="0"/>
+      <c r="E13" s="23">
+        <f t="shared" si="1"/>
         <v>1523.97</v>
       </c>
-      <c r="F13" s="24">
-        <f t="shared" si="0"/>
+      <c r="F13" s="23">
+        <f t="shared" si="1"/>
         <v>1523.97</v>
       </c>
-      <c r="G13" s="24">
-        <f t="shared" si="0"/>
+      <c r="G13" s="23">
+        <f t="shared" si="1"/>
         <v>1523.97</v>
       </c>
-      <c r="H13" s="24">
-        <f t="shared" si="0"/>
+      <c r="H13" s="23">
+        <f t="shared" si="1"/>
         <v>1512.98</v>
       </c>
-      <c r="I13" s="24">
-        <f t="shared" si="0"/>
+      <c r="I13" s="23">
+        <f t="shared" si="1"/>
         <v>1612.98</v>
       </c>
-      <c r="J13" s="24">
-        <f t="shared" si="0"/>
+      <c r="J13" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K13" s="24">
-        <f t="shared" si="0"/>
+      <c r="K13" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L13" s="24">
-        <f t="shared" si="0"/>
+      <c r="L13" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="24">
-        <f t="shared" si="0"/>
+      <c r="M13" s="23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="29">
         <f>AVERAGEIF(B13:M13,"&gt;0",B13:M13)</f>
         <v>1532.1</v>
       </c>
@@ -6902,256 +6896,256 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>110</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <v>110</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="25">
         <v>110</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="25">
         <v>110</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="25">
         <v>110</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="25">
         <v>110</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="25">
         <v>110</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="25">
         <v>110</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>40</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <v>40</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <v>40</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="25">
         <v>40</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
         <v>40</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="25">
         <v>40</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <v>40</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="25">
         <v>40</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>50</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <v>45</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="25">
         <v>25</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="25">
         <v>30</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="25">
         <v>25</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="25">
         <v>30</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="25">
         <v>28</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="25">
         <v>45</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>200</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="25">
         <v>145</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="25">
         <v>125</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="25">
         <v>100</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="25">
         <v>80</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="25">
         <v>80</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="25">
         <v>125</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="25">
         <v>230</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>25</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <v>25</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="25">
         <v>25</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="25">
         <v>25</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="25">
         <v>25</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="25">
         <v>25</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="25">
         <v>25</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="25">
         <v>25</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <v>40</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="25">
         <v>40</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="25">
         <v>40</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="25">
         <v>40</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="25">
         <v>40</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="25">
         <v>40</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="25">
         <v>40</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="25">
         <v>40</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="27">
         <f>SUM(B16:B21)</f>
         <v>465</v>
       </c>
-      <c r="C22" s="28">
-        <f t="shared" ref="C22:M22" si="1">SUM(C16:C21)</f>
+      <c r="C22" s="27">
+        <f t="shared" ref="C22:M22" si="2">SUM(C16:C21)</f>
         <v>405</v>
       </c>
-      <c r="D22" s="28">
-        <f t="shared" si="1"/>
+      <c r="D22" s="27">
+        <f t="shared" si="2"/>
         <v>365</v>
       </c>
-      <c r="E22" s="28">
-        <f t="shared" si="1"/>
+      <c r="E22" s="27">
+        <f t="shared" si="2"/>
         <v>345</v>
       </c>
-      <c r="F22" s="28">
-        <f t="shared" si="1"/>
+      <c r="F22" s="27">
+        <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="G22" s="28">
-        <f t="shared" si="1"/>
+      <c r="G22" s="27">
+        <f t="shared" si="2"/>
         <v>325</v>
       </c>
-      <c r="H22" s="28">
-        <f t="shared" si="1"/>
+      <c r="H22" s="27">
+        <f t="shared" si="2"/>
         <v>368</v>
       </c>
-      <c r="I22" s="28">
-        <f t="shared" si="1"/>
+      <c r="I22" s="27">
+        <f t="shared" si="2"/>
         <v>490</v>
       </c>
-      <c r="J22" s="28">
-        <f t="shared" si="1"/>
+      <c r="J22" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="28">
-        <f t="shared" si="1"/>
+      <c r="K22" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L22" s="28">
-        <f t="shared" si="1"/>
+      <c r="L22" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M22" s="28">
-        <f t="shared" si="1"/>
+      <c r="M22" s="27">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22" s="31">
+      <c r="N22" s="30">
         <f>AVERAGEIF(B22:M22,"&gt;0",B22:M22)</f>
         <v>385.375</v>
       </c>
@@ -7188,159 +7182,159 @@
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32">
         <v>100</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="32">
         <v>110</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32">
         <v>300</v>
       </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33">
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32">
         <v>300</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33">
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32">
         <v>300</v>
       </c>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33">
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32">
         <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32">
         <v>125</v>
       </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32">
         <v>500</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="35">
+      <c r="B30" s="34">
         <f>SUM(B25:B29)</f>
         <v>110</v>
       </c>
-      <c r="C30" s="35">
-        <f t="shared" ref="C30:M30" si="2">SUM(C25:C29)</f>
+      <c r="C30" s="34">
+        <f t="shared" ref="C30:M30" si="3">SUM(C25:C29)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="35">
-        <f t="shared" si="2"/>
+      <c r="D30" s="34">
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="E30" s="35">
-        <f t="shared" si="2"/>
+      <c r="E30" s="34">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F30" s="35">
-        <f t="shared" si="2"/>
+      <c r="F30" s="34">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="G30" s="35">
-        <f t="shared" si="2"/>
+      <c r="G30" s="34">
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
-      <c r="H30" s="35">
-        <f t="shared" si="2"/>
+      <c r="H30" s="34">
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="I30" s="35">
-        <f t="shared" si="2"/>
+      <c r="I30" s="34">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J30" s="35">
-        <f t="shared" si="2"/>
+      <c r="J30" s="34">
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="K30" s="35">
-        <f t="shared" si="2"/>
+      <c r="K30" s="34">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="35">
-        <f t="shared" si="2"/>
+      <c r="L30" s="34">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M30" s="35">
-        <f t="shared" si="2"/>
+      <c r="M30" s="34">
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="N30" s="36">
+      <c r="N30" s="35">
         <f>AVERAGE(B30:M30)</f>
         <v>169.58333333333334</v>
       </c>
@@ -7377,280 +7371,280 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="38">
+      <c r="B33" s="37">
         <v>50</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="37">
         <v>32.704582521121026</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="37">
         <v>29.769104195589385</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="37">
         <v>16.159020211962034</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="37">
         <v>26.976720980544989</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="37">
         <v>37.224066430587357</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="37">
         <v>39.400112506494231</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="37">
         <v>38.173693215978162</v>
       </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="41">
-        <f t="shared" ref="N33:N38" si="3">AVERAGEIF(B33:M33,"&gt;0",B33:M33)</f>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="40">
+        <f t="shared" ref="N33:N38" si="4">AVERAGEIF(B33:M33,"&gt;0",B33:M33)</f>
         <v>33.800912507784645</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="38">
+      <c r="B34" s="37">
         <v>100</v>
       </c>
-      <c r="C34" s="38">
+      <c r="C34" s="37">
         <v>44.100602491589044</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="37">
         <v>33.536821499776046</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="37">
         <v>12.384095683194479</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="37">
         <v>22.787149023804687</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="37">
         <v>35.962740679795651</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="37">
         <v>46.365372329899905</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="37">
         <v>4.7239186707028757</v>
       </c>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="41">
-        <f t="shared" si="3"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="40">
+        <f t="shared" si="4"/>
         <v>37.482587547345332</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="38">
+      <c r="B35" s="37">
         <v>55</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35" s="37">
         <v>7.6561608768618674</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="37">
         <v>47.662463882099019</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="37">
         <v>14.594522233906842</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="37">
         <v>8.8950507135094448</v>
       </c>
-      <c r="G35" s="38">
+      <c r="G35" s="37">
         <v>9.5413699125393876</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35" s="37">
         <v>1.8871070491508379</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I35" s="37">
         <v>28.054155398634922</v>
       </c>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="41">
-        <f t="shared" si="3"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="40">
+        <f t="shared" si="4"/>
         <v>21.661353758337789</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="38">
+      <c r="B36" s="37">
         <v>230</v>
       </c>
-      <c r="C36" s="38">
+      <c r="C36" s="37">
         <v>17.244784807632684</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="37">
         <v>30.795577967218978</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36" s="37">
         <v>32.258284348899139</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="37">
         <v>14.282405804353242</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="37">
         <v>20.305987051107216</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="37">
         <v>34.815960722361488</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I36" s="37">
         <v>39.236161598586911</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="41">
-        <f t="shared" si="3"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="40">
+        <f t="shared" si="4"/>
         <v>52.367395287519955</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="38">
+      <c r="B37" s="37">
         <v>34</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C37" s="37">
         <v>33.414636375529128</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="37">
         <v>43.5106720339109</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="37">
         <v>43.595061810175217</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="37">
         <v>1.9786206714752674</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="37">
         <v>1.6032359390939444</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H37" s="37">
         <v>17.03634563837549</v>
       </c>
-      <c r="I37" s="38">
+      <c r="I37" s="37">
         <v>37.625189381996528</v>
       </c>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="41">
-        <f t="shared" si="3"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="40">
+        <f t="shared" si="4"/>
         <v>26.595470231319556</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="38">
+      <c r="B38" s="37">
         <v>800</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C38" s="37">
         <v>703.66658193353078</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D38" s="37">
         <v>1177.3358916606744</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="37">
         <v>582.7493628340942</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="37">
         <v>527.93537341983188</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38" s="37">
         <v>455.32372286555324</v>
       </c>
-      <c r="H38" s="38">
+      <c r="H38" s="37">
         <v>535.35825273737737</v>
       </c>
-      <c r="I38" s="38">
+      <c r="I38" s="37">
         <v>986.39308755261914</v>
       </c>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="41">
-        <f t="shared" si="3"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="40">
+        <f t="shared" si="4"/>
         <v>721.09528412546024</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="40">
+      <c r="B39" s="39">
         <f>SUM(B33:B38)</f>
         <v>1269</v>
       </c>
-      <c r="C39" s="40">
-        <f t="shared" ref="C39:M39" si="4">SUM(C33:C38)</f>
+      <c r="C39" s="39">
+        <f t="shared" ref="C39:M39" si="5">SUM(C33:C38)</f>
         <v>838.78734900626455</v>
       </c>
-      <c r="D39" s="40">
-        <f t="shared" si="4"/>
+      <c r="D39" s="39">
+        <f t="shared" si="5"/>
         <v>1362.6105312392688</v>
       </c>
-      <c r="E39" s="40">
-        <f t="shared" si="4"/>
+      <c r="E39" s="39">
+        <f t="shared" si="5"/>
         <v>701.74034712223192</v>
       </c>
-      <c r="F39" s="40">
-        <f t="shared" si="4"/>
+      <c r="F39" s="39">
+        <f t="shared" si="5"/>
         <v>602.85532061351955</v>
       </c>
-      <c r="G39" s="40">
-        <f t="shared" si="4"/>
+      <c r="G39" s="39">
+        <f t="shared" si="5"/>
         <v>559.96112287867675</v>
       </c>
-      <c r="H39" s="40">
-        <f t="shared" si="4"/>
+      <c r="H39" s="39">
+        <f t="shared" si="5"/>
         <v>674.86315098365935</v>
       </c>
-      <c r="I39" s="40">
-        <f t="shared" si="4"/>
+      <c r="I39" s="39">
+        <f t="shared" si="5"/>
         <v>1134.2062058185186</v>
       </c>
-      <c r="J39" s="40">
-        <f t="shared" si="4"/>
+      <c r="J39" s="39">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K39" s="40">
-        <f t="shared" si="4"/>
+      <c r="K39" s="39">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L39" s="40">
-        <f t="shared" si="4"/>
+      <c r="L39" s="39">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M39" s="40">
-        <f t="shared" si="4"/>
+      <c r="M39" s="39">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N39" s="41">
+      <c r="N39" s="40">
         <f>AVERAGEIF(B39:M39,"&gt;0",B39:M39)</f>
         <v>893.00300345776748</v>
       </c>
@@ -7678,47 +7672,47 @@
         <v>3354.99</v>
       </c>
       <c r="C41" s="9">
-        <f t="shared" ref="C41:M41" si="5">SUM(C39,C22,C13,C30)</f>
+        <f t="shared" ref="C41:M41" si="6">SUM(C39,C22,C13,C30)</f>
         <v>2767.7573490062646</v>
       </c>
       <c r="D41" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3551.5805312392686</v>
       </c>
       <c r="E41" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2570.7103471222317</v>
       </c>
       <c r="F41" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2546.8253206135196</v>
       </c>
       <c r="G41" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3208.9311228786769</v>
       </c>
       <c r="H41" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2680.8431509836591</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3237.1862058185188</v>
       </c>
       <c r="J41" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M41" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="N41" s="3">
@@ -7727,55 +7721,55 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="44">
-        <f>B6-B41</f>
+      <c r="B42" s="42">
+        <f t="shared" ref="B42:M42" si="7">B6-B41</f>
         <v>-354.98999999999978</v>
       </c>
-      <c r="C42" s="44">
-        <f>C6-C41</f>
+      <c r="C42" s="42">
+        <f t="shared" si="7"/>
         <v>232.24265099373542</v>
       </c>
-      <c r="D42" s="44">
-        <f>D6-D41</f>
+      <c r="D42" s="42">
+        <f t="shared" si="7"/>
         <v>-151.58053123926857</v>
       </c>
-      <c r="E42" s="44">
-        <f>E6-E41</f>
+      <c r="E42" s="42">
+        <f t="shared" si="7"/>
         <v>829.28965287776828</v>
       </c>
-      <c r="F42" s="44">
-        <f>F6-F41</f>
+      <c r="F42" s="42">
+        <f t="shared" si="7"/>
         <v>853.17467938648042</v>
       </c>
-      <c r="G42" s="44">
-        <f>G6-G41</f>
+      <c r="G42" s="42">
+        <f t="shared" si="7"/>
         <v>191.06887712132311</v>
       </c>
-      <c r="H42" s="44">
-        <f>H6-H41</f>
+      <c r="H42" s="42">
+        <f t="shared" si="7"/>
         <v>719.15684901634086</v>
       </c>
-      <c r="I42" s="44">
-        <f>I6-I41</f>
+      <c r="I42" s="42">
+        <f t="shared" si="7"/>
         <v>162.81379418148117</v>
       </c>
-      <c r="J42" s="44">
-        <f>J6-J41</f>
+      <c r="J42" s="42">
+        <f t="shared" si="7"/>
         <v>-300</v>
       </c>
-      <c r="K42" s="44">
-        <f>K6-K41</f>
+      <c r="K42" s="42">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L42" s="44">
-        <f>L6-L41</f>
+      <c r="L42" s="42">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M42" s="44">
-        <f>M6-M41</f>
+      <c r="M42" s="42">
+        <f t="shared" si="7"/>
         <v>-300</v>
       </c>
       <c r="N42" s="3">
@@ -7811,47 +7805,47 @@
         <v>645.01000000000022</v>
       </c>
       <c r="C45" s="14">
-        <f t="shared" ref="C45:N45" si="6">B45+C42</f>
+        <f t="shared" ref="C45:M45" si="8">B45+C42</f>
         <v>877.25265099373564</v>
       </c>
       <c r="D45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>725.67211975446708</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1554.9617726322354</v>
       </c>
       <c r="F45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2408.1364520187158</v>
       </c>
       <c r="G45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2599.2053291400389</v>
       </c>
       <c r="H45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3318.3621781563797</v>
       </c>
       <c r="I45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3481.1759723378609</v>
       </c>
       <c r="J45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3181.1759723378609</v>
       </c>
       <c r="K45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3181.1759723378609</v>
       </c>
       <c r="L45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3181.1759723378609</v>
       </c>
       <c r="M45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2881.1759723378609</v>
       </c>
       <c r="N45" t="s">
@@ -7859,106 +7853,106 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="46">
+      <c r="B46" s="44">
         <f>IrregExps!E9</f>
         <v>520.83333333333326</v>
       </c>
-      <c r="C46" s="46">
+      <c r="C46" s="44">
         <f>IrregExps!F9</f>
         <v>782.08333333333326</v>
       </c>
-      <c r="D46" s="46">
+      <c r="D46" s="44">
         <f>IrregExps!G9</f>
         <v>633.33333333333326</v>
       </c>
-      <c r="E46" s="46">
+      <c r="E46" s="44">
         <f>IrregExps!H9</f>
         <v>784.58333333333326</v>
       </c>
-      <c r="F46" s="46">
+      <c r="F46" s="44">
         <f>IrregExps!I9</f>
         <v>835.83333333333326</v>
       </c>
-      <c r="G46" s="46">
+      <c r="G46" s="44">
         <f>IrregExps!J9</f>
         <v>187.08333333333326</v>
       </c>
-      <c r="H46" s="46">
+      <c r="H46" s="44">
         <f>IrregExps!K9</f>
         <v>213.33333333333331</v>
       </c>
-      <c r="I46" s="46">
+      <c r="I46" s="44">
         <f>IrregExps!L9</f>
         <v>364.58333333333331</v>
       </c>
-      <c r="J46" s="46">
+      <c r="J46" s="44">
         <f>IrregExps!M9</f>
         <v>215.83333333333326</v>
       </c>
-      <c r="K46" s="46">
+      <c r="K46" s="44">
         <f>IrregExps!N9</f>
         <v>367.08333333333331</v>
       </c>
-      <c r="L46" s="46">
+      <c r="L46" s="44">
         <f>IrregExps!O9</f>
         <v>518.33333333333326</v>
       </c>
-      <c r="M46" s="46">
+      <c r="M46" s="44">
         <f>IrregExps!P9</f>
         <v>369.58333333333326</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="47">
+      <c r="A47" s="36"/>
+      <c r="B47" s="45">
         <f>B45-B46</f>
         <v>124.17666666666696</v>
       </c>
-      <c r="C47" s="47">
-        <f t="shared" ref="C47:M47" si="7">C45-C46</f>
+      <c r="C47" s="45">
+        <f t="shared" ref="C47:M47" si="9">C45-C46</f>
         <v>95.169317660402385</v>
       </c>
-      <c r="D47" s="47">
-        <f t="shared" si="7"/>
+      <c r="D47" s="45">
+        <f t="shared" si="9"/>
         <v>92.338786421133818</v>
       </c>
-      <c r="E47" s="47">
-        <f t="shared" si="7"/>
+      <c r="E47" s="45">
+        <f t="shared" si="9"/>
         <v>770.37843929890209</v>
       </c>
-      <c r="F47" s="47">
-        <f t="shared" si="7"/>
+      <c r="F47" s="45">
+        <f t="shared" si="9"/>
         <v>1572.3031186853825</v>
       </c>
-      <c r="G47" s="47">
-        <f t="shared" si="7"/>
+      <c r="G47" s="45">
+        <f t="shared" si="9"/>
         <v>2412.1219958067059</v>
       </c>
-      <c r="H47" s="47">
-        <f t="shared" si="7"/>
+      <c r="H47" s="45">
+        <f t="shared" si="9"/>
         <v>3105.0288448230463</v>
       </c>
-      <c r="I47" s="47">
-        <f t="shared" si="7"/>
+      <c r="I47" s="45">
+        <f t="shared" si="9"/>
         <v>3116.5926390045274</v>
       </c>
-      <c r="J47" s="47">
-        <f t="shared" si="7"/>
+      <c r="J47" s="45">
+        <f t="shared" si="9"/>
         <v>2965.3426390045279</v>
       </c>
-      <c r="K47" s="47">
-        <f t="shared" si="7"/>
+      <c r="K47" s="45">
+        <f t="shared" si="9"/>
         <v>2814.0926390045274</v>
       </c>
-      <c r="L47" s="47">
-        <f t="shared" si="7"/>
+      <c r="L47" s="45">
+        <f t="shared" si="9"/>
         <v>2662.8426390045279</v>
       </c>
-      <c r="M47" s="47">
-        <f t="shared" si="7"/>
+      <c r="M47" s="45">
+        <f t="shared" si="9"/>
         <v>2511.5926390045279</v>
       </c>
       <c r="N47" t="s">
@@ -8000,8 +7994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A295A6E7-9C64-428D-A9DF-63B55577E08D}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8059,7 +8053,7 @@
       <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8391,10 +8385,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="11">
         <f>SUM(D2:D6)</f>
         <v>169.58333333333334</v>
